--- a/biology/Zoologie/Hyloscirtus_sarampiona/Hyloscirtus_sarampiona.xlsx
+++ b/biology/Zoologie/Hyloscirtus_sarampiona/Hyloscirtus_sarampiona.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,9 +490,11 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Hyloscirtus sarampiona est une espèce d'amphibiens de la famille des Hylidae[1].
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Hyloscirtus sarampiona est une espèce d'amphibiens de la famille des Hylidae.
 </t>
         </is>
       </c>
@@ -511,9 +523,11 @@
           <t>Répartition</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Cette espèce est endémique de Colombie. Elle se rencontre vers 2 190 m d'altitude sur le versant Pacifique de la cordillère Occidentale dans les municipalités de López de Micay et d'El Tambo, dans le parc national naturel de Munchique dans le département du Cauca[1],[2].
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Cette espèce est endémique de Colombie. Elle se rencontre vers 2 190 m d'altitude sur le versant Pacifique de la cordillère Occidentale dans les municipalités de López de Micay et d'El Tambo, dans le parc national naturel de Munchique dans le département du Cauca,.
 </t>
         </is>
       </c>
@@ -542,7 +556,9 @@
           <t>Publication originale</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t>Ruiz-Carranza &amp; Lynch, 1982 : Dos nuevas especies de Hyla (Amphibia: Anura) de Colombia, con aportes al conocimiento de Hyla bogotensis. Caldasia, vol. 13, no 64, p. 647-671 (texte intégral).</t>
         </is>
